--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R441538ee6fe040e6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R892025d6eb1a4beb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R892025d6eb1a4beb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R464102797d9e4581"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R464102797d9e4581"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R014f89bd9615468a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R014f89bd9615468a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R482518229a0740ee"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R482518229a0740ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Ra30b0d1a976f47ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Ra30b0d1a976f47ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Reaacb2ca07f14593"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Reaacb2ca07f14593"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rc2396d87f5e34c0a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rc2396d87f5e34c0a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R94cdb81af4d74de0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R94cdb81af4d74de0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rf5f90f2d3e3b4c08"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rf5f90f2d3e3b4c08"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rb759f2cb1d7e499e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rb759f2cb1d7e499e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R97e36ccbf2b347d4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R97e36ccbf2b347d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R984dd90281eb498d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="16"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/037_CellMerging.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="R984dd90281eb498d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cell Merging" sheetId="1" r:id="Rcae0d0ec8f7a4e11"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
